--- a/Mifos Automation Excels/Client/4384-ACTGRP-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-ModifyfuturMeet-to15MARCH2015-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4384-ACTGRP-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-ModifyfuturMeet-to15MARCH2015-Newcreateloan1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -257,10 +257,13 @@
     <t>clickonsubmit1</t>
   </si>
   <si>
-    <t>NavigateToLoan</t>
-  </si>
-  <si>
-    <t>Groupq4384</t>
+    <t>error.msg.calendar.new.start.date.cannot.be.in.past</t>
+  </si>
+  <si>
+    <t>verify1</t>
+  </si>
+  <si>
+    <t>Groupa4384</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,10 +917,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1057,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,10 +1292,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8">
-        <v>42109</v>
+        <v>42097</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1335,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>42116</v>
+        <v>42104</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1378,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8">
-        <v>42123</v>
+        <v>42111</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1421,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <v>42130</v>
+        <v>42118</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1464,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8">
-        <v>42137</v>
+        <v>42125</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1507,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8">
-        <v>42144</v>
+        <v>42132</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1550,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="8">
-        <v>42151</v>
+        <v>42139</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1593,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8">
-        <v>42158</v>
+        <v>42146</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1636,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="8">
-        <v>42165</v>
+        <v>42153</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1796,7 +1799,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
